--- a/templates/4COM04_GenomeAssembly.xlsx
+++ b/templates/4COM04_GenomeAssembly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM04_GenomeAssembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DC5115-24BC-423B-BBD8-22F66208BA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8B3E8-7C63-448C-8F28-C4E0BA18493B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM04_GenomeAssembly" sheetId="1" r:id="rId1"/>
@@ -43,11 +43,11 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1B82A122-B7DC-4A5B-92B7-EFF54693A4C6}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=11b23480-80a8-4d95-a2bb-b3e9c7d53a23</t>
       </text>
     </comment>
@@ -502,7 +502,7 @@
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000038</t>
   </si>
   <si>
-    <t>1.1.5</t>
+    <t>1.1.6</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1070,9 +1070,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
@@ -1253,9 +1253,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2198836-D18B-4D0A-A514-00A7EC4AFC3D}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -1504,7 +1504,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>

--- a/templates/4COM04_GenomeAssembly.xlsx
+++ b/templates/4COM04_GenomeAssembly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8B3E8-7C63-448C-8F28-C4E0BA18493B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F624C4-0DBE-486C-AFE8-CE8906DEED6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM04_GenomeAssembly" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,14 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={1B82A122-B7DC-4A5B-92B7-EFF54693A4C6}</author>
+    <author>tc={7F2B0E6D-7667-4BBE-84EF-E94F714AF9D5}</author>
+    <author>tc={55280B2E-9540-497C-8359-55487A5C5B18}</author>
+    <author>tc={F0D435E2-551F-45A7-BCE6-994AC7ADA3CA}</author>
+    <author>tc={E6BCAC0A-6199-4E14-8166-0207D5BB43BA}</author>
+    <author>tc={60BEB3E6-604B-45C4-BB34-C8023C7A5426}</author>
+    <author>tc={3F4F0D99-C656-496E-AC9C-D9F60E63A964}</author>
+    <author>tc={9FE4B02B-3403-489E-8E1F-763CB8E6BEEA}</author>
+    <author>tc={CDC4E02C-8CF8-4363-A689-0DE050A2C5DC}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1B82A122-B7DC-4A5B-92B7-EFF54693A4C6}">
@@ -51,6 +59,70 @@
     id=11b23480-80a8-4d95-a2bb-b3e9c7d53a23</t>
       </text>
     </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{7F2B0E6D-7667-4BBE-84EF-E94F714AF9D5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate template.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{55280B2E-9540-497C-8359-55487A5C5B18}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current version of this template in SemVer notation.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{F0D435E2-551F-45A7-BCE6-994AC7ADA3CA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The description of this template. Use few sentences for succinctness.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{E6BCAC0A-6199-4E14-8166-0207D5BB43BA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{60BEB3E6-604B-45C4-BB34-C8023C7A5426}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate annotation table in the workbook of the template's excel file.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{3F4F0D99-C656-496E-AC9C-D9F60E63A964}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{9FE4B02B-3403-489E-8E1F-763CB8E6BEEA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{CDC4E02C-8CF8-4363-A689-0DE050A2C5DC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The author(s) of this template.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -184,9 +256,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Docslink</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -242,18 +311,6 @@
   </si>
   <si>
     <t>Authors Affiliation</t>
-  </si>
-  <si>
-    <t>#AUTHORS ROLES list</t>
-  </si>
-  <si>
-    <t>Authors Roles</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Accession Number</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Source REF</t>
   </si>
   <si>
     <t>11b23480-80a8-4d95-a2bb-b3e9c7d53a23</t>
@@ -503,13 +560,28 @@
   </si>
   <si>
     <t>1.1.6</t>
+  </si>
+  <si>
+    <t>DataPLANT</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
+  </si>
+  <si>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +596,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -713,6 +791,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Oliver Maus" id="{FBC36E2B-B730-4109-BA59-BA90700921C5}" userId="Oliver Maus" providerId="None"/>
+  <person displayName="Kevin F" id="{EA1D190D-BC87-4559-B140-3DA984DCD180}" userId="b000b0ea35d13fa4" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -1032,6 +1111,30 @@
   <threadedComment ref="A1" dT="2021-11-03T17:15:55.32" personId="{FBC36E2B-B730-4109-BA59-BA90700921C5}" id="{91FE8604-0F2C-4F8A-9B14-A9C74ADC2D4F}" parentId="{1B82A122-B7DC-4A5B-92B7-EFF54693A4C6}">
     <text>id=11b23480-80a8-4d95-a2bb-b3e9c7d53a23</text>
   </threadedComment>
+  <threadedComment ref="A2" dT="2022-03-04T14:02:18.75" personId="{EA1D190D-BC87-4559-B140-3DA984DCD180}" id="{7F2B0E6D-7667-4BBE-84EF-E94F714AF9D5}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-03-04T14:02:18.76" personId="{EA1D190D-BC87-4559-B140-3DA984DCD180}" id="{55280B2E-9540-497C-8359-55487A5C5B18}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2022-03-04T14:02:18.76" personId="{EA1D190D-BC87-4559-B140-3DA984DCD180}" id="{F0D435E2-551F-45A7-BCE6-994AC7ADA3CA}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2022-03-04T14:02:18.76" personId="{EA1D190D-BC87-4559-B140-3DA984DCD180}" id="{E6BCAC0A-6199-4E14-8166-0207D5BB43BA}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2022-03-04T14:02:18.76" personId="{EA1D190D-BC87-4559-B140-3DA984DCD180}" id="{60BEB3E6-604B-45C4-BB34-C8023C7A5426}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{EA1D190D-BC87-4559-B140-3DA984DCD180}" id="{3F4F0D99-C656-496E-AC9C-D9F60E63A964}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{EA1D190D-BC87-4559-B140-3DA984DCD180}" id="{9FE4B02B-3403-489E-8E1F-763CB8E6BEEA}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{EA1D190D-BC87-4559-B140-3DA984DCD180}" id="{CDC4E02C-8CF8-4363-A689-0DE050A2C5DC}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1070,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1232,13 +1335,13 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1251,9 +1354,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2198836-D18B-4D0A-A514-00A7EC4AFC3D}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1266,7 +1371,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,7 +1379,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,7 +1387,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1290,207 +1395,214 @@
         <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="7"/>
+      <c r="A25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="A27" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1522,40 +1634,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1563,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1586,31 +1698,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -1621,28 +1733,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -1653,24 +1765,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -1681,24 +1793,24 @@
         <v>7</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -1709,24 +1821,24 @@
         <v>10</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -1737,28 +1849,28 @@
         <v>13</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -1769,28 +1881,28 @@
         <v>16</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -1801,28 +1913,28 @@
         <v>19</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -1833,28 +1945,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -1865,28 +1977,28 @@
         <v>25</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -1897,19 +2009,19 @@
         <v>28</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -1923,28 +2035,28 @@
         <v>31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -1952,31 +2064,31 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
@@ -1987,24 +2099,24 @@
         <v>34</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
